--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1390641.445423297</v>
+        <v>1392965.117237165</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.891109467671333</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -701,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>19.88180868221617</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>47.13383555196372</v>
+      </c>
+      <c r="X3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="S3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="T3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -838,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,28 +861,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
+        <v>23.44046883036203</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.170977004479181</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>240.6899316306499</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>178.157313031983</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>74.07202360046695</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -993,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>230.6992324161051</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,16 +1147,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>118.0728405592477</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>66.27621346797223</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>151.27808017072</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,50 +1384,50 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H11" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I11" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.809496073036188</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1451,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1461,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>64.33804635206413</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>183.8842973311964</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,58 +1618,58 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>60.09118670082915</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1740,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>162.6080338315131</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1825,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="18">
@@ -1923,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>111.8617700100201</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1935,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>27.44407725673862</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2041,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>241.0142888776591</v>
@@ -2123,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2144,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="Y20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>203.3816115706753</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>88.12692860372137</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2239,52 +2241,52 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,17 +2317,17 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -2333,13 +2335,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="I23" t="n">
-        <v>208.2638363878124</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2363,25 +2365,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2460,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>90.77435263801738</v>
+        <v>16.53524424398009</v>
       </c>
     </row>
     <row r="25">
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2597,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2679,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.79900896488251</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>24.74894597221386</v>
       </c>
     </row>
     <row r="28">
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2877,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2934,10 +2936,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>50.16678928893436</v>
+        <v>10.40493801491967</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>120.2060159584285</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>93.15020580927228</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -3168,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3196,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T35" t="n">
+        <v>94.41048699370604</v>
+      </c>
+      <c r="U35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,19 +3398,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>76.7220177761389</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>84.8410341333234</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,22 +3632,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>114.3233170536452</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3743,13 +3745,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
       <c r="W41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>18.55597406227221</v>
+        <v>142.0523914963076</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3974,73 +3976,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4056,28 +4058,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>31.16010504236965</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>57.36793574965427</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4334,46 +4336,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>163.2132134803467</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S2" t="n">
-        <v>203.9585006715719</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9585006715719</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U2" t="n">
-        <v>149.9054410655621</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="W2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="X2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
       <c r="Y2" t="n">
-        <v>149.9054410655621</v>
+        <v>139.9144214012476</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C3" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D3" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E3" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F3" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G3" t="n">
-        <v>51.89093722176946</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>51.89093722176946</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
@@ -4419,10 +4421,10 @@
         <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4431,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>159.9970564337892</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>105.9439968277793</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>51.89093722176946</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>51.89093722176946</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="X3" t="n">
-        <v>51.89093722176946</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="Y3" t="n">
-        <v>51.89093722176946</v>
+        <v>112.3871215328157</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="C4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="D4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="E4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4507,31 +4509,31 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.01130316959576</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="R4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="S4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="T4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="U4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>80.82849811456629</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="W4" t="n">
-        <v>80.82849811456629</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.28100232079598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509.4769954460863</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="C5" t="n">
-        <v>509.4769954460863</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4592,25 +4594,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="U5" t="n">
-        <v>509.4769954460863</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V5" t="n">
-        <v>509.4769954460863</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="W5" t="n">
-        <v>509.4769954460863</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X5" t="n">
-        <v>509.4769954460863</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>540.6514970160482</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.1273272985679</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C6" t="n">
-        <v>655.1273272985679</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>506.1929176373167</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>346.9554626318612</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4656,13 +4658,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4689,7 +4691,7 @@
         <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>655.1273272985679</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4746,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>509.8046290289238</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="C8" t="n">
-        <v>509.8046290289238</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="D8" t="n">
-        <v>509.8046290289238</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="E8" t="n">
-        <v>509.8046290289238</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="F8" t="n">
-        <v>502.8591282797204</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>482.2773291604919</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>482.2773291604919</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4905,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>795.941955893853</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>560.7898476621102</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W9" t="n">
-        <v>317.3410710180102</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>317.3410710180102</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4981,25 +4983,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
         <v>19.28114311021272</v>
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
         <v>19.28114311021272</v>
@@ -5069,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>194.4883050441255</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="C12" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9998941357428</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>84.26906871835831</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5124,46 +5126,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N12" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>778.3154410346802</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>778.3154410346802</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V12" t="n">
-        <v>778.3154410346802</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W12" t="n">
-        <v>778.3154410346802</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X12" t="n">
-        <v>570.4639408291474</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y12" t="n">
-        <v>362.7036420641935</v>
+        <v>391.2152311558108</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5236,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5303,25 +5305,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>728.9050472788936</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C15" t="n">
-        <v>728.9050472788936</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5361,16 +5363,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N15" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
         <v>964.0571555106362</v>
@@ -5388,19 +5390,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W15" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X15" t="n">
-        <v>728.9050472788936</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y15" t="n">
-        <v>728.9050472788936</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5473,13 +5475,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
         <v>19.28114311021272</v>
@@ -5543,22 +5545,22 @@
         <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>634.6640077999109</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C18" t="n">
-        <v>634.6640077999109</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D18" t="n">
-        <v>521.6723209211027</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>634.6640077999109</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="V18" t="n">
-        <v>634.6640077999109</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="W18" t="n">
-        <v>634.6640077999109</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="X18" t="n">
-        <v>634.6640077999109</v>
+        <v>560.7319261617492</v>
       </c>
       <c r="Y18" t="n">
-        <v>634.6640077999109</v>
+        <v>352.9716273967953</v>
       </c>
     </row>
     <row r="19">
@@ -5689,31 +5691,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
         <v>506.1786963984129</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X21" t="n">
-        <v>168.215552771464</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
         <v>19.28114311021272</v>
@@ -5932,28 +5934,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.7186438601369</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C23" t="n">
-        <v>241.7186438601369</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D23" t="n">
-        <v>241.7186438601369</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E23" t="n">
-        <v>241.7186438601369</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F23" t="n">
-        <v>241.7186438601369</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G23" t="n">
-        <v>241.7186438601369</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="H23" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U23" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V23" t="n">
-        <v>728.6161971483371</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W23" t="n">
-        <v>728.6161971483371</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X23" t="n">
-        <v>485.167420504237</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y23" t="n">
-        <v>485.167420504237</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>258.5151819143075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>258.5151819143075</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>518.4217842253022</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X24" t="n">
-        <v>518.4217842253022</v>
+        <v>35.98341002332393</v>
       </c>
       <c r="Y24" t="n">
-        <v>426.7305189343755</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6306,46 +6308,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>933.9571464551993</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>44.28007843568128</v>
       </c>
       <c r="Y27" t="n">
         <v>19.28114311021272</v>
@@ -6400,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W30" t="n">
-        <v>446.0215048700907</v>
+        <v>189.028636514577</v>
       </c>
       <c r="X30" t="n">
-        <v>238.1700046645579</v>
+        <v>189.028636514577</v>
       </c>
       <c r="Y30" t="n">
-        <v>187.4964801302808</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6679,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>256.1153302261713</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C33" t="n">
-        <v>256.1153302261713</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>256.1153302261713</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>256.1153302261713</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>109.5807722530562</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6786,43 +6788,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>869.9660385315733</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>869.9660385315733</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>667.7794438903394</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>667.7794438903394</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>667.7794438903394</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>424.3306672462393</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>424.3306672462393</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y33" t="n">
-        <v>424.3306672462393</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>168.9696854242497</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C36" t="n">
-        <v>168.9696854242497</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>611.9732938615252</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>611.9732938615252</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>376.8211856297825</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W36" t="n">
-        <v>376.8211856297825</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X36" t="n">
-        <v>168.9696854242497</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y36" t="n">
-        <v>168.9696854242497</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="37">
@@ -7123,7 +7125,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7211,13 +7213,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>284.0338015341832</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C39" t="n">
-        <v>109.5807722530562</v>
+        <v>104.979157386297</v>
       </c>
       <c r="D39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>747.4095280295369</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>747.4095280295369</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>519.185909765926</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>284.0338015341832</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>284.0338015341832</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>284.0338015341832</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y39" t="n">
-        <v>284.0338015341832</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40.6788758079141</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C41" t="n">
-        <v>40.6788758079141</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D41" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7433,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>527.5764290961142</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>284.1276524520142</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V41" t="n">
-        <v>284.1276524520142</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W41" t="n">
-        <v>40.6788758079141</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X41" t="n">
-        <v>40.6788758079141</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y41" t="n">
-        <v>40.6788758079141</v>
+        <v>343.8760884571613</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>193.7341723913397</v>
+        <v>612.718391167419</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7503,10 +7505,10 @@
         <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>894.6625969973069</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>569.7098081763618</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="V42" t="n">
-        <v>569.7098081763618</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="W42" t="n">
-        <v>569.7098081763618</v>
+        <v>820.5698913729518</v>
       </c>
       <c r="X42" t="n">
-        <v>569.7098081763618</v>
+        <v>612.718391167419</v>
       </c>
       <c r="Y42" t="n">
-        <v>361.9495094114078</v>
+        <v>612.718391167419</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C44" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>82.32787816303323</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7672,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>486.820788837921</v>
+        <v>552.3930418464681</v>
       </c>
       <c r="C45" t="n">
-        <v>486.820788837921</v>
+        <v>520.918188268317</v>
       </c>
       <c r="D45" t="n">
-        <v>337.8863791766698</v>
+        <v>520.918188268317</v>
       </c>
       <c r="E45" t="n">
-        <v>337.8863791766698</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="F45" t="n">
-        <v>191.3518212035547</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G45" t="n">
-        <v>191.3518212035547</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H45" t="n">
-        <v>77.98268561113407</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,46 +7733,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>862.8876260635219</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>655.0361258579891</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>655.0361258579891</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7834,7 +7836,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
         <v>19.28114311021272</v>
@@ -7982,19 +7984,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>282.5834023809789</v>
+        <v>284.7455247652193</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8067,13 +8069,13 @@
         <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>187.48693642428</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8304,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8772,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>299.7328472056018</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9009,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
@@ -9729,13 +9731,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,19 +10436,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11151,13 +11153,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5053919605859</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11300,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23270,16 +23272,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23349,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>47.89739788443234</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>16.28043136362521</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>344.0891364002832</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23555,7 +23557,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>87.3538788638096</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23628,7 +23630,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>43.16495137196441</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23738,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23783,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="18">
@@ -23811,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>35.58329555461864</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23823,16 +23825,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>198.4973048242362</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23929,7 +23931,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>113.6687527430239</v>
@@ -24011,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
@@ -24032,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>135.4421949581581</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>29.41897557874998</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>117.6460565997561</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24221,13 +24223,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>255.0550143366059</v>
       </c>
       <c r="I23" t="n">
-        <v>2.212053182593479</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24251,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24303,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24348,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>114.908343139287</v>
+        <v>189.1474515333243</v>
       </c>
     </row>
     <row r="25">
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24427,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>70.35882518776062</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>180.9337498050905</v>
       </c>
     </row>
     <row r="28">
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24649,13 +24651,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,22 +24733,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24765,7 +24767,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24807,13 +24809,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24822,10 +24824,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>155.51590648837</v>
+        <v>195.2777577623847</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,10 +24964,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>46.32716769143885</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25005,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.007628343370854</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25056,10 +25058,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25084,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228172</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25199,28 +25201,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>92.97244319957487</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,19 +25286,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>123.4427109186827</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25363,10 +25365,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,10 +25408,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25451,13 +25453,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="39">
@@ -25473,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>62.60403143131535</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25488,7 +25490,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25518,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.35985405019265</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25594,10 +25596,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25631,13 +25633,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>274.3483346048629</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25646,10 +25648,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>201.2414235542941</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,22 +25675,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25704,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25755,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>207.3854080187026</v>
+        <v>83.88899058466725</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>277.0585344134748</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,16 +25921,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25944,28 +25946,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>141.5483939459461</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>32.02869710176081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26074,10 +26076,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>390715.7602289186</v>
+        <v>390715.7602289185</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>390715.7602289186</v>
+        <v>390715.7602289185</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>390715.7602289184</v>
+        <v>390715.7602289186</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390715.7602289185</v>
+        <v>390715.7602289186</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>390715.7602289186</v>
+        <v>390715.7602289185</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>390715.7602289186</v>
+        <v>390715.7602289184</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
         <v>224316.9079172986</v>
@@ -26326,25 +26328,25 @@
         <v>224316.9079172986</v>
       </c>
       <c r="G2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="H2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="I2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="J2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="K2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="L2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="M2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="N2" t="n">
         <v>224316.9079172986</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26454,7 +26456,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="P4" t="n">
         <v>33649.84678425771</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145317.5524940273</v>
+        <v>145317.5524940276</v>
       </c>
       <c r="C6" t="n">
-        <v>132750.2292892445</v>
+        <v>132750.2292892443</v>
       </c>
       <c r="D6" t="n">
-        <v>193326.5514759126</v>
+        <v>193326.5514759127</v>
       </c>
       <c r="E6" t="n">
-        <v>176013.3923692792</v>
+        <v>176013.3923692793</v>
       </c>
       <c r="F6" t="n">
         <v>176013.3923692792</v>
@@ -26537,25 +26539,25 @@
         <v>176013.3923692793</v>
       </c>
       <c r="H6" t="n">
+        <v>176013.3923692793</v>
+      </c>
+      <c r="I6" t="n">
         <v>176013.3923692792</v>
       </c>
-      <c r="I6" t="n">
-        <v>176013.3923692793</v>
-      </c>
       <c r="J6" t="n">
-        <v>162012.160229</v>
+        <v>162012.1602289999</v>
       </c>
       <c r="K6" t="n">
-        <v>127756.4394356466</v>
+        <v>127756.4394356467</v>
       </c>
       <c r="L6" t="n">
-        <v>176013.3923692793</v>
+        <v>176013.3923692792</v>
       </c>
       <c r="M6" t="n">
         <v>176013.3923692793</v>
       </c>
       <c r="N6" t="n">
-        <v>176013.3923692792</v>
+        <v>176013.3923692793</v>
       </c>
       <c r="O6" t="n">
         <v>176013.3923692793</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>372.8427321958092</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27421,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>197.8331238978867</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>307.8704497879187</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27473,13 +27475,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
-        <v>43.00938862570919</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>118.1706420938881</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>146.6521996848718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27518,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>204.5611476089559</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27558,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>32.64951424174463</v>
+        <v>62.72157442133235</v>
       </c>
       <c r="R4" t="n">
-        <v>176.1224143726903</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27597,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>113.9931099900331</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>30.86275655426235</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>70.99718879291693</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27761,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>123.8600405104216</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.0346092473755</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,16 +27867,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>251.6582601192213</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27950,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>159.6651686130026</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>100.4169029901996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28053,7 +28055,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X10" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -34702,19 +34704,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34787,13 +34789,13 @@
         <v>51.35040662570935</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -34945,10 +34947,10 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35024,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>161.1784674257276</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35729,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,10 +36439,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
@@ -36449,13 +36451,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37388,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37871,13 +37873,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>169.9091475161414</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1392965.117237165</v>
+        <v>1324113.820795728</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404855</v>
+        <v>14661612.74404854</v>
       </c>
     </row>
     <row r="9">
@@ -673,43 +673,43 @@
         <v>53.51252900994975</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>37.14313633741891</v>
       </c>
       <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>19.88180868221617</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>47.13383555196372</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>46.38724422570589</v>
       </c>
     </row>
     <row r="4">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.892417739585678</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="X4" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>105.6245995301945</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>178.157313031983</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1022,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>24.43074352985881</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>24.7554325077908</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>24.7554325077908</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1156,7 +1156,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>118.0728405592477</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1268,19 +1268,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>32.56277138066267</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>151.27808017072</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>64.33804635206413</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>95.49935363464796</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>40.85552544062845</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>162.6080338315131</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="X17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>33.61939259518709</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>27.44407725673862</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2207,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>195.5418170649168</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>203.3816115706753</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2326,64 +2326,64 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>84.41978777916125</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>119.7586652934944</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>16.53524424398009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2599,25 +2599,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="V26" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>24.74894597221386</v>
+        <v>164.4958805047074</v>
       </c>
     </row>
     <row r="28">
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F29" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>218.7207027570939</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.40493801491967</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120.2060159584285</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>82.28530073128378</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>23.30068755143278</v>
       </c>
       <c r="D39" t="n">
-        <v>84.8410341333234</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>80.33470701582003</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -3830,16 +3830,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.16374038692172</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>142.0523914963076</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3912,19 +3912,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4055,13 +4055,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>31.16010504236965</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>118.5540130169416</v>
       </c>
     </row>
     <row r="46">
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139.9144214012476</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
-        <v>139.9144214012476</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="D2" t="n">
-        <v>139.9144214012476</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="E2" t="n">
-        <v>139.9144214012476</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="F2" t="n">
-        <v>85.86136179523773</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="G2" t="n">
-        <v>70.40405117388919</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="H2" t="n">
-        <v>70.40405117388919</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I2" t="n">
-        <v>16.35099156787933</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4336,46 +4336,46 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>108.0953086000985</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>159.9970564337892</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>139.9144214012476</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>139.9144214012476</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>139.9144214012476</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="Y2" t="n">
-        <v>139.9144214012476</v>
+        <v>149.9054410655621</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.33406192680583</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="C3" t="n">
-        <v>58.33406192680583</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>58.33406192680583</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="E3" t="n">
-        <v>58.33406192680583</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="F3" t="n">
-        <v>58.33406192680583</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="G3" t="n">
-        <v>58.33406192680583</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="N3" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="O3" t="n">
         <v>108.0953086000985</v>
-      </c>
-      <c r="N3" t="n">
-        <v>161.0727123199487</v>
-      </c>
-      <c r="O3" t="n">
-        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
         <v>161.0727123199487</v>
@@ -4448,13 +4448,13 @@
         <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>112.3871215328157</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.3871215328157</v>
+        <v>113.1412541856014</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>30.70717359904702</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="V4" t="n">
-        <v>112.3871215328157</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="X4" t="n">
-        <v>4.28100232079598</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.28100232079598</v>
+        <v>84.76023320505688</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>297.2027203719481</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>297.2027203719481</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>297.2027203719481</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>784.1002736601483</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>784.1002736601483</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>784.1002736601483</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>784.1002736601483</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>540.6514970160482</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E6" t="n">
         <v>508.9694238887622</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="7">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
         <v>41.77557929797318</v>
@@ -4752,25 +4752,25 @@
         <v>66.78106667958005</v>
       </c>
       <c r="S7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.78106667958005</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>482.2773291604919</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>482.2773291604919</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>482.2773291604919</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>482.2773291604919</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>482.2773291604919</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>482.2773291604919</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>454.3919986096612</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>454.3919986096612</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>454.3919986096612</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>454.3919986096612</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>454.3919986096612</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>454.3919986096612</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C11" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D11" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E11" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5071,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>222.9998941357428</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>222.9998941357428</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>84.26906871835831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
         <v>19.28114311021272</v>
@@ -5126,46 +5126,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>867.5931619402847</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>867.5931619402847</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>665.4065672990507</v>
       </c>
       <c r="U12" t="n">
-        <v>634.6640077999109</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="V12" t="n">
-        <v>634.6640077999109</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W12" t="n">
-        <v>391.2152311558108</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X12" t="n">
-        <v>391.2152311558108</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y12" t="n">
-        <v>391.2152311558108</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="13">
@@ -5232,10 +5232,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
         <v>19.28114311021272</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>284.1276524520142</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="C14" t="n">
-        <v>262.7299197543128</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="D14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5302,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S14" t="n">
-        <v>752.9257720901863</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T14" t="n">
-        <v>527.5764290961142</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U14" t="n">
-        <v>527.5764290961142</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V14" t="n">
-        <v>527.5764290961142</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="W14" t="n">
-        <v>284.1276524520142</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="X14" t="n">
-        <v>284.1276524520142</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="Y14" t="n">
-        <v>284.1276524520142</v>
+        <v>114.6452713866835</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>168.215552771464</v>
+        <v>313.4034442885899</v>
       </c>
       <c r="C15" t="n">
-        <v>168.215552771464</v>
+        <v>313.4034442885899</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>313.4034442885899</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>313.4034442885899</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>313.4034442885899</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>174.6726188712054</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>61.30348327878475</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
@@ -5366,43 +5366,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U15" t="n">
-        <v>735.8335372470253</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V15" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W15" t="n">
-        <v>500.6814290152826</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X15" t="n">
-        <v>336.430889791532</v>
+        <v>481.618781308658</v>
       </c>
       <c r="Y15" t="n">
-        <v>336.430889791532</v>
+        <v>481.618781308658</v>
       </c>
     </row>
     <row r="16">
@@ -5472,7 +5472,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
         <v>19.28114311021272</v>
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>591.4512093066566</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U17" t="n">
-        <v>591.4512093066566</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V17" t="n">
-        <v>591.4512093066566</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W17" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>352.9716273967953</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="C18" t="n">
-        <v>178.5185981156682</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="D18" t="n">
-        <v>178.5185981156682</v>
+        <v>212.4775805350491</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>53.24012552959363</v>
       </c>
       <c r="F18" t="n">
         <v>19.28114311021272</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>487.8483949674443</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U18" t="n">
-        <v>560.7319261617492</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V18" t="n">
-        <v>560.7319261617492</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W18" t="n">
-        <v>560.7319261617492</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X18" t="n">
-        <v>560.7319261617492</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y18" t="n">
-        <v>352.9716273967953</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="19">
@@ -5697,25 +5697,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5737,13 +5737,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,25 +5773,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>742.8341567219593</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
         <v>506.1786963984129</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>593.1228240270457</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>593.1228240270457</v>
       </c>
       <c r="U21" t="n">
-        <v>432.4774131586771</v>
+        <v>593.1228240270457</v>
       </c>
       <c r="V21" t="n">
-        <v>227.0414418751666</v>
+        <v>593.1228240270457</v>
       </c>
       <c r="W21" t="n">
-        <v>227.0414418751666</v>
+        <v>593.1228240270457</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>593.1228240270457</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>593.1228240270457</v>
       </c>
     </row>
     <row r="22">
@@ -5934,13 +5934,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>104.5536560184564</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>348.0024326625565</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W23" t="n">
-        <v>348.0024326625565</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N24" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6098,22 +6098,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W24" t="n">
-        <v>243.8349102288568</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X24" t="n">
-        <v>35.98341002332393</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>446.0215048700907</v>
       </c>
     </row>
     <row r="25">
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="X26" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="Y26" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="X26" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>252.1315786412141</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>252.1315786412141</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="X27" t="n">
-        <v>44.28007843568128</v>
+        <v>492.3847606029253</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>326.2273055476653</v>
       </c>
     </row>
     <row r="28">
@@ -6402,19 +6402,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
         <v>262.7299197543128</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>178.5185981156682</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6545,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U30" t="n">
-        <v>432.4774131586771</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V30" t="n">
-        <v>432.4774131586771</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W30" t="n">
-        <v>189.028636514577</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="X30" t="n">
-        <v>189.028636514577</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y30" t="n">
-        <v>178.5185981156682</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>158.0119685275972</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>880.9406901255011</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>880.9406901255011</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>645.7885818937584</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>402.3398052496583</v>
       </c>
       <c r="X33" t="n">
-        <v>279.432186667424</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y33" t="n">
-        <v>279.432186667424</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="34">
@@ -6879,19 +6879,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>259.0600686093459</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C36" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>84.60703932821886</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7028,40 +7028,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V36" t="n">
-        <v>259.0600686093459</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W36" t="n">
-        <v>259.0600686093459</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X36" t="n">
-        <v>259.0600686093459</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y36" t="n">
-        <v>259.0600686093459</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="37">
@@ -7119,13 +7119,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.432186667424</v>
+        <v>191.7516008032143</v>
       </c>
       <c r="C39" t="n">
-        <v>104.979157386297</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7256,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X39" t="n">
-        <v>279.432186667424</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="Y39" t="n">
-        <v>279.432186667424</v>
+        <v>191.7516008032143</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F40" t="n">
         <v>19.28114311021272</v>
@@ -7353,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>343.8760884571613</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>343.8760884571613</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D41" t="n">
         <v>262.7299197543128</v>
@@ -7435,28 +7435,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>587.3248651012614</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X41" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y41" t="n">
-        <v>343.8760884571613</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>612.718391167419</v>
+        <v>582.8795121963512</v>
       </c>
       <c r="C42" t="n">
-        <v>612.718391167419</v>
+        <v>408.4264829152243</v>
       </c>
       <c r="D42" t="n">
-        <v>463.7839815061678</v>
+        <v>259.492073253973</v>
       </c>
       <c r="E42" t="n">
-        <v>304.5465265007123</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>100.2546182485175</v>
       </c>
       <c r="I42" t="n">
         <v>19.28114311021272</v>
@@ -7493,22 +7493,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7517,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>820.5698913729518</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>820.5698913729518</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>820.5698913729518</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X42" t="n">
-        <v>612.718391167419</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y42" t="n">
-        <v>612.718391167419</v>
+        <v>582.8795121963512</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>946.3215033461793</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>552.3930418464681</v>
+        <v>844.3056272106952</v>
       </c>
       <c r="C45" t="n">
-        <v>520.918188268317</v>
+        <v>669.8525979295682</v>
       </c>
       <c r="D45" t="n">
         <v>520.918188268317</v>
@@ -7736,13 +7736,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7766,13 +7766,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y45" t="n">
-        <v>720.6083788665362</v>
+        <v>844.3056272106952</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
         <v>19.28114311021272</v>
@@ -7839,19 +7839,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
         <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>189.9047864055835</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
         <v>193.4943030959713</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,22 +8774,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,19 +9014,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>255.5148970497678</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11384,16 +11384,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N45" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23311,10 +23311,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>47.89739788443234</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>4.658480517995173</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,10 +23497,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>344.0891364002832</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>260.2725546269769</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,16 +23542,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23579,7 +23579,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>48.54110741078663</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>43.16495137196441</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23712,10 +23712,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>129.0278429749881</v>
       </c>
       <c r="X17" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>301.8181508768923</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>111.4498197981968</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>198.4973048242362</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23937,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>135.4421949581581</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24095,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>4.622911629904792</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>29.41897557874998</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24214,7 +24214,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>255.0550143366059</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>46.77451835637292</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24293,10 +24293,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24350,10 +24350,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>189.1474515333243</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24487,25 +24487,25 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V26" t="n">
-        <v>107.53913272771</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>180.9337498050905</v>
+        <v>41.18681527259696</v>
       </c>
     </row>
     <row r="28">
@@ -24642,13 +24642,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24657,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24685,13 +24685,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>204.5813593128142</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24736,13 +24736,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>32.97428040382573</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>195.2777577623847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24919,7 +24919,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>385.6922903709871</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24964,22 +24964,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>254.830481723707</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46.32716769143885</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25010,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>117.8794279635378</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25131,10 +25131,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2941050228172</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25165,13 +25165,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>128.6853625704253</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25235,13 +25235,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>109.5662672500513</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>92.97244319957487</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>182.4696517789847</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25450,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25472,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.407811436883</v>
       </c>
       <c r="D39" t="n">
-        <v>62.60403143131535</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>98.39612368925759</v>
       </c>
       <c r="G40" t="n">
         <v>167.9909793584588</v>
@@ -25593,13 +25593,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>274.3483346048629</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25675,13 +25675,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25709,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>9.232892464493361</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25757,13 +25757,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>83.88899058466725</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25772,10 +25772,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,19 +25800,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25921,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25943,13 +25943,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>141.5483939459461</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -26006,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>87.12868276036276</v>
       </c>
     </row>
     <row r="46">
@@ -26040,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>390715.7602289186</v>
+        <v>390715.7602289185</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>390715.7602289185</v>
+        <v>390715.7602289186</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>390715.7602289186</v>
+        <v>390715.7602289185</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>390715.7602289185</v>
+        <v>390715.7602289186</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>390715.7602289184</v>
+        <v>390715.7602289185</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>224316.9079172987</v>
+      </c>
+      <c r="F2" t="n">
+        <v>224316.9079172987</v>
+      </c>
+      <c r="G2" t="n">
         <v>224316.9079172986</v>
-      </c>
-      <c r="F2" t="n">
-        <v>224316.9079172986</v>
-      </c>
-      <c r="G2" t="n">
-        <v>224316.9079172987</v>
       </c>
       <c r="H2" t="n">
         <v>224316.9079172986</v>
@@ -26343,16 +26343,16 @@
         <v>224316.9079172987</v>
       </c>
       <c r="L2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="M2" t="n">
-        <v>224316.9079172986</v>
+        <v>224316.9079172987</v>
       </c>
       <c r="N2" t="n">
         <v>224316.9079172986</v>
       </c>
       <c r="O2" t="n">
-        <v>224316.9079172987</v>
+        <v>224316.9079172986</v>
       </c>
       <c r="P2" t="n">
         <v>224316.9079172986</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354071.2011411577</v>
+        <v>354071.2011411576</v>
       </c>
       <c r="C4" t="n">
         <v>312595.3744187171</v>
@@ -26453,7 +26453,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="O4" t="n">
         <v>33649.84678425771</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145317.5524940276</v>
+        <v>145317.5524940275</v>
       </c>
       <c r="C6" t="n">
-        <v>132750.2292892443</v>
+        <v>132750.2292892444</v>
       </c>
       <c r="D6" t="n">
-        <v>193326.5514759127</v>
+        <v>193326.5514759126</v>
       </c>
       <c r="E6" t="n">
-        <v>176013.3923692793</v>
+        <v>163795.3817492388</v>
       </c>
       <c r="F6" t="n">
-        <v>176013.3923692792</v>
+        <v>163795.3817492388</v>
       </c>
       <c r="G6" t="n">
-        <v>176013.3923692793</v>
+        <v>163795.3817492388</v>
       </c>
       <c r="H6" t="n">
-        <v>176013.3923692793</v>
+        <v>163795.3817492388</v>
       </c>
       <c r="I6" t="n">
-        <v>176013.3923692792</v>
+        <v>163795.3817492388</v>
       </c>
       <c r="J6" t="n">
-        <v>162012.1602289999</v>
+        <v>149794.1496089595</v>
       </c>
       <c r="K6" t="n">
-        <v>127756.4394356467</v>
+        <v>115538.4288156062</v>
       </c>
       <c r="L6" t="n">
-        <v>176013.3923692792</v>
+        <v>163795.3817492388</v>
       </c>
       <c r="M6" t="n">
-        <v>176013.3923692793</v>
+        <v>163795.3817492388</v>
       </c>
       <c r="N6" t="n">
-        <v>176013.3923692793</v>
+        <v>163795.3817492388</v>
       </c>
       <c r="O6" t="n">
-        <v>176013.3923692793</v>
+        <v>163795.3817492388</v>
       </c>
       <c r="P6" t="n">
-        <v>176013.3923692793</v>
+        <v>163795.3817492388</v>
       </c>
     </row>
   </sheetData>
@@ -27393,16 +27393,16 @@
         <v>353.3635167317617</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>361.7902085051853</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>302.3316657783482</v>
       </c>
       <c r="I2" t="n">
-        <v>156.9633605604562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>155.5075405762956</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>307.8704497879187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27481,7 +27481,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>204.5611476089559</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>159.2954515515985</v>
       </c>
     </row>
     <row r="4">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>126.3194511719875</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>144.7230552786267</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>62.72157442133235</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>172.1971263790874</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>165.072124342145</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>301.251446211517</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>30.86275655426235</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,13 +27697,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27742,19 +27742,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>208.3698436195665</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>123.8600405104216</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>199.2611655291815</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>303.8671480099096</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -27876,7 +27876,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>251.6582601192213</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27934,7 +27934,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27943,13 +27943,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27988,19 +27988,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>193.3786107003122</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>100.4169029901996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28055,7 +28055,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34704,19 +34704,19 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>51.35040662570935</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>51.35040662570935</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>53.51252900994975</v>
@@ -34944,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35257,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35494,22 +35494,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>113.3808631277495</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>91.0829537758999</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37396,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N45" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N45" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
